--- a/mControl_produccion/formatos/caja4.xlsx
+++ b/mControl_produccion/formatos/caja4.xlsx
@@ -19,37 +19,37 @@
     <t>Afiliación</t>
   </si>
   <si>
-    <t>7773224</t>
+    <t>7543520</t>
   </si>
   <si>
     <t>Fecha de Transacción</t>
   </si>
   <si>
-    <t>20/02/2020</t>
+    <t>15/03/2021</t>
   </si>
   <si>
     <t>Hora de Transacción</t>
   </si>
   <si>
-    <t>10:19:09</t>
+    <t>15:34:33</t>
   </si>
   <si>
     <t>Número de Control</t>
   </si>
   <si>
-    <t>202002202711018505005</t>
+    <t>2021031514431535599693</t>
   </si>
   <si>
     <t>Código de Autorización</t>
   </si>
   <si>
-    <t>438118</t>
+    <t>103440</t>
   </si>
   <si>
     <t>Número de Tarjeta</t>
   </si>
   <si>
-    <t>415231******5005</t>
+    <t>534875******9693</t>
   </si>
   <si>
     <t>Tipo de Transacción</t>
@@ -67,13 +67,13 @@
     <t>Monto</t>
   </si>
   <si>
-    <t>250</t>
+    <t>2592.15</t>
   </si>
   <si>
     <t>Referencia</t>
   </si>
   <si>
-    <t>482018355399</t>
+    <t>444654106690</t>
   </si>
   <si>
     <t>Referencia 1</t>
@@ -136,19 +136,19 @@
     <t>Banco Emisor</t>
   </si>
   <si>
-    <t xml:space="preserve">BANCOMER  </t>
+    <t>DEBITO/CAM</t>
   </si>
   <si>
     <t>Marca de Tarjeta</t>
   </si>
   <si>
-    <t>VISA------</t>
+    <t>CREDITO/PL</t>
   </si>
   <si>
     <t>Tipo de Tarjeta</t>
   </si>
   <si>
-    <t xml:space="preserve">DEBITO    </t>
+    <t xml:space="preserve">CREDITO   </t>
   </si>
 </sst>
 </file>
@@ -486,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:AB7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:J7"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:AB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
